--- a/biology/Histoire de la zoologie et de la botanique/Richard_Ebner/Richard_Ebner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Ebner/Richard_Ebner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Ebner est un entomologiste autrichien, né à Guntramsdorf le 8 octobre 1885 et mort à Vienne le 27 décembre 1961. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1910 et 1938, il voyagea en Europe, au Proche-Orient et au Maroc pour constituer une impressionnante collection entomologique (trois armoires avec une centaine de boites)[1] qu'il légua au Musée d'Histoire Naturelle de Vienne. C'était un spécialiste mondialement reconnu de l'ordre des orthoptères[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1910 et 1938, il voyagea en Europe, au Proche-Orient et au Maroc pour constituer une impressionnante collection entomologique (trois armoires avec une centaine de boites) qu'il légua au Musée d'Histoire Naturelle de Vienne. C'était un spécialiste mondialement reconnu de l'ordre des orthoptères.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On lui doit la description du perce-oreille Chelidurella transsilvanica présent en Roumanie, Ukraine et Pologne[3],[4] et du criquet Chorthippus rammei présent en Autriche, en Slovénie et dans le Nord de l'Italie, également appelé Chorthippus alticola[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui doit la description du perce-oreille Chelidurella transsilvanica présent en Roumanie, Ukraine et Pologne, et du criquet Chorthippus rammei présent en Autriche, en Slovénie et dans le Nord de l'Italie, également appelé Chorthippus alticola.
 </t>
         </is>
       </c>
@@ -573,15 +589,17 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces (ou sous-espèces) de reptiles[6] et d'arthropodes ont été nommées en référence à ce naturaliste :
-La vipère des steppes (sous espèce présente au nord de l'Iran)[7] : Vipera renardi ebneri
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces (ou sous-espèces) de reptiles et d'arthropodes ont été nommées en référence à ce naturaliste :
+La vipère des steppes (sous espèce présente au nord de l'Iran) : Vipera renardi ebneri
 Un scinque endémique du Maroc : Chalcides ebneri
 Une araignée endémique du Maroc : Blossia ebneri
-Un criquet des Apennins : Italopodisma ebneri[8]
+Un criquet des Apennins : Italopodisma ebneri
 le thrips du lin et des céréales, également appelé Thrips ebneri
-Richard Ebner était par ailleurs membre d'honneur de la Société entomologique d'Égypte[2].
+Richard Ebner était par ailleurs membre d'honneur de la Société entomologique d'Égypte.
 </t>
         </is>
       </c>
